--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3847.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3847.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Francois Du Plessis</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3217</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3219</t>
+          <t>3219</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3222</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>24/02/2011</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3241</t>
+          <t>3241</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3250</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3255</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3263</t>
+          <t>3263</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3268</t>
+          <t>3268</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3273</t>
+          <t>3273</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3279</t>
+          <t>3279</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3339</t>
+          <t>3339</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3344</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3347</t>
+          <t>3347</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3361</t>
+          <t>3361</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3362</t>
+          <t>3362</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3363</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3364</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3365</t>
+          <t>3365</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3385</t>
+          <t>3385</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3388</t>
+          <t>3388</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3390</t>
+          <t>3390</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1580,7 +1644,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -1588,7 +1651,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3436</t>
+          <t>3436</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1640,7 +1703,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3438</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1692,7 +1755,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3440</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1744,7 +1807,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3442</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1796,7 +1859,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1848,7 +1911,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3464</t>
+          <t>3464</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1900,7 +1963,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3469</t>
+          <t>3469</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3484</t>
+          <t>3484</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3487</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3488</t>
+          <t>3488</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2160,7 +2223,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3502</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2212,7 +2275,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3505</t>
+          <t>3505</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2264,7 +2327,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3509</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2316,7 +2379,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3513</t>
+          <t>3513</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2368,7 +2431,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2420,7 +2483,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3534</t>
+          <t>3534</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2472,7 +2535,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3536</t>
+          <t>3536</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3540</t>
+          <t>3540</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3542</t>
+          <t>3542</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3543</t>
+          <t>3543</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3569</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3571</t>
+          <t>3571</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2784,7 +2847,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3574</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2836,7 +2899,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3575</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2888,7 +2951,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3577</t>
+          <t>3577</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2940,7 +3003,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3653</t>
+          <t>3653</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2992,7 +3055,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3654</t>
+          <t>3654</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3044,7 +3107,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3656</t>
+          <t>3656</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3096,7 +3159,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3663</t>
+          <t>3663</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3148,7 +3211,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3665</t>
+          <t>3665</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3200,7 +3263,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3252,7 +3315,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3671</t>
+          <t>3671</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3304,7 +3367,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3685</t>
+          <t>3685</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3408,7 +3471,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3686</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3460,7 +3523,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3694</t>
+          <t>3694</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3512,7 +3575,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3695</t>
+          <t>3695</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3564,7 +3627,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3697</t>
+          <t>3697</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3616,7 +3679,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3698</t>
+          <t>3698</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3668,7 +3731,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3700</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3720,7 +3783,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3728</t>
+          <t>3728</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3760,7 +3823,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>18/01/2015</t>
@@ -3768,7 +3830,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3732</t>
+          <t>3732</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3820,7 +3882,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3736</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3872,7 +3934,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3740</t>
+          <t>3740</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3924,7 +3986,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3742</t>
+          <t>3742</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3976,7 +4038,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3750</t>
+          <t>3750</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4028,7 +4090,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4080,7 +4142,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4132,7 +4194,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4184,7 +4246,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3776</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4236,7 +4298,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3790</t>
+          <t>3790</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4288,7 +4350,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3794</t>
+          <t>3794</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4340,7 +4402,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3813</t>
+          <t>3813</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4392,7 +4454,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3816</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4444,7 +4506,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3818</t>
+          <t>3818</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4496,7 +4558,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4548,7 +4610,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4600,7 +4662,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4652,7 +4714,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4704,7 +4766,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4756,7 +4818,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4808,7 +4870,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4860,7 +4922,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4912,7 +4974,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4964,7 +5026,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5016,7 +5078,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3896</t>
+          <t>3896</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5068,7 +5130,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3900</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5108,7 +5170,6 @@
           <t>90</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -5116,7 +5177,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3903</t>
+          <t>3903</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5168,7 +5229,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3907</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5220,7 +5281,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3935</t>
+          <t>3935</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5272,7 +5333,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3940</t>
+          <t>3940</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5324,7 +5385,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3942</t>
+          <t>3942</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5376,7 +5437,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3945</t>
+          <t>3945</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5428,7 +5489,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3947</t>
+          <t>3947</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5480,7 +5541,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3950</t>
+          <t>3950</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5532,7 +5593,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5584,7 +5645,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3985</t>
+          <t>3985</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5636,7 +5697,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3987</t>
+          <t>3987</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5688,7 +5749,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3989</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5740,7 +5801,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5792,7 +5853,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3992</t>
+          <t>3992</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5844,7 +5905,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3995</t>
+          <t>3995</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5896,7 +5957,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3997</t>
+          <t>3997</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5948,7 +6009,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3999</t>
+          <t>3999</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -6000,7 +6061,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4002</t>
+          <t>4002</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6052,7 +6113,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6104,7 +6165,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6156,7 +6217,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6208,7 +6269,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4033</t>
+          <t>4033</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6260,7 +6321,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4037</t>
+          <t>4037</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6312,7 +6373,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4042</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6352,7 +6413,6 @@
           <t>114</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -6360,7 +6420,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4080</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6412,7 +6472,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4083</t>
+          <t>4083</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6464,7 +6524,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4086</t>
+          <t>4086</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6516,7 +6576,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6568,7 +6628,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4182</t>
+          <t>4182</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6620,7 +6680,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4183</t>
+          <t>4183</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6672,7 +6732,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4186</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6724,7 +6784,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4208</t>
+          <t>4208</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6776,7 +6836,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4222</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6828,7 +6888,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4224</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6880,7 +6940,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4226</t>
+          <t>4226</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6920,7 +6980,6 @@
           <t>125</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -6928,7 +6987,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4237</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6980,7 +7039,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4238</t>
+          <t>4238</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7032,7 +7091,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4241</t>
+          <t>4241</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7084,7 +7143,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4244</t>
+          <t>4244</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7136,7 +7195,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4247</t>
+          <t>4247</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7188,7 +7247,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4261</t>
+          <t>4261</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7240,7 +7299,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4264</t>
+          <t>4264</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7292,7 +7351,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4269</t>
+          <t>4269</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7344,7 +7403,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4271</t>
+          <t>4271</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7396,7 +7455,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4272</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7448,7 +7507,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7500,7 +7559,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4307</t>
+          <t>4307</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7552,7 +7611,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4310</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7604,7 +7663,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4317</t>
+          <t>4317</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7644,7 +7703,6 @@
           <t>139</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>15/06/2019</t>
@@ -7652,7 +7710,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7704,7 +7762,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4328</t>
+          <t>4328</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7756,7 +7814,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4334</t>
+          <t>4334</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7808,7 +7866,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4339</t>
+          <t>4339</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7860,7 +7918,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7899,7 +7957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7921,7 +7979,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -7958,7 +8016,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3217</t>
+          <t>3217</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -7995,7 +8053,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3219</t>
+          <t>3219</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8032,7 +8090,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3222</t>
+          <t>3222</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8069,7 +8127,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3255</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8106,7 +8164,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3263</t>
+          <t>3263</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8143,7 +8201,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3363</t>
+          <t>3363</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8180,7 +8238,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3364</t>
+          <t>3364</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8217,7 +8275,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -8254,7 +8312,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3466</t>
+          <t>3466</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -8291,7 +8349,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3766</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -8328,7 +8386,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3771</t>
+          <t>3771</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -8354,6 +8412,549 @@
       <c r="G12" t="inlineStr">
         <is>
           <t>0/30</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>39.06%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4238</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.86%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.39%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4244</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.76%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4247</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.28%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4264</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.71%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10.88%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4271</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>17.78%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4303</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4307</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4310</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4317</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4328</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>9.54%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4334</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.32%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4339</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.60%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.77%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>YES</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3847.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3847.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">

--- a/bin/sheets/main_db/teams/SAF/PlayerPerformance_3847.xlsx
+++ b/bin/sheets/main_db/teams/SAF/PlayerPerformance_3847.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -713,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>24/02/2011</t>
@@ -1644,6 +1644,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -3823,6 +3824,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>18/01/2015</t>
@@ -5170,6 +5172,7 @@
           <t>90</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
           <t>19/06/2016</t>
@@ -6413,6 +6416,7 @@
           <t>114</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>15/10/2017</t>
@@ -6980,6 +6984,7 @@
           <t>125</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr">
         <is>
           <t>19/01/2019</t>
@@ -7703,6 +7708,7 @@
           <t>139</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>15/06/2019</t>
@@ -8418,547 +8424,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4226</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>39.06%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4237</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4238</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.86%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4241</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.39%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4244</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>34.76%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4247</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4261</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>48.28%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4264</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22.71%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4269</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>10.88%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4271</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4272</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17.78%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4303</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4307</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4310</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4317</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4328</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>9.54%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4334</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>24.32%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4339</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>46.60%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>30.77%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>